--- a/sTools/excelTable/test1.xlsx
+++ b/sTools/excelTable/test1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>}d(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,13 +402,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -414,14 +421,11 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -431,10 +435,7 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
     </row>

--- a/sTools/excelTable/test1.xlsx
+++ b/sTools/excelTable/test1.xlsx
@@ -16,29 +16,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>a(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{b(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}d(I)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bn(I)</t>
+    <t>{(S)b(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{e(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}f(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S)c(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(S)bn(I)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}(S)d(I)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,35 +387,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -424,8 +431,11 @@
       <c r="F2">
         <v>5</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -437,6 +447,9 @@
       </c>
       <c r="F3">
         <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
